--- a/Player Database/Kaka.xlsx
+++ b/Player Database/Kaka.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="31">
   <si>
     <t xml:space="preserve">TEAM</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t xml:space="preserve">Ita Cup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Substitute</t>
   </si>
   <si>
     <t xml:space="preserve">WCQ</t>
@@ -326,14 +323,13 @@
   </sheetPr>
   <dimension ref="A1:H611"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A178" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D198" activeCellId="0" sqref="D198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="8" min="1" style="0" width="14.4438775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="1" style="0" width="14.1734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5404,8 +5400,8 @@
       <c r="C198" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D198" s="3" t="s">
-        <v>16</v>
+      <c r="D198" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="E198" s="3" t="n">
         <v>1</v>
@@ -5766,7 +5762,7 @@
         <v>38637</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D212" s="3" t="n">
         <v>90</v>
@@ -5792,7 +5788,7 @@
         <v>38599</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D213" s="3" t="n">
         <v>90</v>
@@ -5818,7 +5814,7 @@
         <v>38438</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D214" s="3" t="n">
         <v>90</v>
@@ -5844,7 +5840,7 @@
         <v>38269</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D215" s="3" t="n">
         <v>90</v>
@@ -5870,7 +5866,7 @@
         <v>37944</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D216" s="3" t="n">
         <v>90</v>
@@ -5896,7 +5892,7 @@
         <v>37871</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D217" s="3" t="n">
         <v>90</v>
@@ -6616,7 +6612,7 @@
         <v>39407</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D245" s="3" t="n">
         <v>90</v>
@@ -6642,7 +6638,7 @@
         <v>39404</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D246" s="3" t="n">
         <v>90</v>
@@ -6798,7 +6794,7 @@
         <v>39372</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D252" s="3" t="n">
         <v>89</v>
@@ -6824,7 +6820,7 @@
         <v>39369</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D253" s="3" t="n">
         <v>85</v>
@@ -7292,7 +7288,7 @@
         <v>39904</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D271" s="3" t="n">
         <v>90</v>
@@ -7578,7 +7574,7 @@
         <v>39779</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D282" s="3" t="n">
         <v>73</v>
@@ -7760,7 +7756,7 @@
         <v>39744</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D289" s="3" t="n">
         <v>77</v>
@@ -7812,7 +7808,7 @@
         <v>39736</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D291" s="3" t="n">
         <v>90</v>
@@ -7838,7 +7834,7 @@
         <v>39733</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D292" s="3" t="n">
         <v>71</v>
@@ -7890,7 +7886,7 @@
         <v>39723</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D294" s="3" t="n">
         <v>29</v>
@@ -7994,7 +7990,7 @@
         <v>39709</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D298" s="3" t="n">
         <v>90</v>
@@ -8040,13 +8036,13 @@
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B300" s="4" t="n">
         <v>40306</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D300" s="3" t="n">
         <v>45</v>
@@ -8066,13 +8062,13 @@
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B301" s="4" t="n">
         <v>40303</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D301" s="3" t="n">
         <v>58</v>
@@ -8092,13 +8088,13 @@
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B302" s="4" t="n">
         <v>40300</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D302" s="3" t="n">
         <v>68</v>
@@ -8118,13 +8114,13 @@
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B303" s="4" t="n">
         <v>40292</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D303" s="3" t="n">
         <v>16</v>
@@ -8144,7 +8140,7 @@
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B304" s="4" t="n">
         <v>40247</v>
@@ -8170,13 +8166,13 @@
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B305" s="4" t="n">
         <v>40243</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D305" s="3" t="n">
         <v>74</v>
@@ -8196,13 +8192,13 @@
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B306" s="4" t="n">
         <v>40236</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D306" s="3" t="n">
         <v>90</v>
@@ -8222,13 +8218,13 @@
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B307" s="4" t="n">
         <v>40230</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D307" s="3" t="n">
         <v>80</v>
@@ -8248,7 +8244,7 @@
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B308" s="4" t="n">
         <v>40225</v>
@@ -8274,13 +8270,13 @@
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B309" s="4" t="n">
         <v>40222</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D309" s="3" t="n">
         <v>75</v>
@@ -8300,13 +8296,13 @@
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B310" s="4" t="n">
         <v>40215</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D310" s="3" t="n">
         <v>90</v>
@@ -8326,13 +8322,13 @@
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B311" s="4" t="n">
         <v>40208</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D311" s="3" t="n">
         <v>90</v>
@@ -8352,13 +8348,13 @@
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B312" s="4" t="n">
         <v>40202</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D312" s="3" t="n">
         <v>79</v>
@@ -8378,13 +8374,13 @@
     </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B313" s="4" t="n">
         <v>40194</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D313" s="3" t="n">
         <v>90</v>
@@ -8404,13 +8400,13 @@
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B314" s="4" t="n">
         <v>40188</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D314" s="3" t="n">
         <v>68</v>
@@ -8430,13 +8426,13 @@
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B315" s="4" t="n">
         <v>40146</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D315" s="3" t="n">
         <v>90</v>
@@ -8456,7 +8452,7 @@
     </row>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B316" s="4" t="n">
         <v>40142</v>
@@ -8482,13 +8478,13 @@
     </row>
     <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B317" s="4" t="n">
         <v>40138</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D317" s="3" t="n">
         <v>87</v>
@@ -8534,13 +8530,13 @@
     </row>
     <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B319" s="4" t="n">
         <v>40124</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D319" s="3" t="n">
         <v>84</v>
@@ -8560,7 +8556,7 @@
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B320" s="4" t="n">
         <v>40120</v>
@@ -8586,13 +8582,13 @@
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B321" s="4" t="n">
         <v>40117</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D321" s="3" t="n">
         <v>82</v>
@@ -8612,13 +8608,13 @@
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B322" s="4" t="n">
         <v>40110</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D322" s="3" t="n">
         <v>90</v>
@@ -8638,7 +8634,7 @@
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B323" s="4" t="n">
         <v>40107</v>
@@ -8664,13 +8660,13 @@
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B324" s="4" t="n">
         <v>40103</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D324" s="3" t="n">
         <v>19</v>
@@ -8696,7 +8692,7 @@
         <v>40100</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D325" s="3" t="n">
         <v>90</v>
@@ -8716,13 +8712,13 @@
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B326" s="4" t="n">
         <v>40090</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D326" s="3" t="n">
         <v>90</v>
@@ -8742,7 +8738,7 @@
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B327" s="4" t="n">
         <v>40086</v>
@@ -8768,13 +8764,13 @@
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B328" s="4" t="n">
         <v>40082</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D328" s="3" t="n">
         <v>45</v>
@@ -8794,13 +8790,13 @@
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B329" s="4" t="n">
         <v>40079</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D329" s="3" t="n">
         <v>74</v>
@@ -8820,13 +8816,13 @@
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B330" s="4" t="n">
         <v>40076</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D330" s="3" t="n">
         <v>68</v>
@@ -8846,7 +8842,7 @@
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B331" s="4" t="n">
         <v>40071</v>
@@ -8872,13 +8868,13 @@
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B332" s="4" t="n">
         <v>40068</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D332" s="3" t="n">
         <v>80</v>
@@ -8904,7 +8900,7 @@
         <v>40061</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D333" s="3" t="n">
         <v>90</v>
@@ -8924,13 +8920,13 @@
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B334" s="4" t="n">
         <v>40054</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D334" s="3" t="n">
         <v>82</v>
@@ -9086,7 +9082,7 @@
         <v>39974</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D340" s="3" t="n">
         <v>90</v>
@@ -9112,7 +9108,7 @@
         <v>39970</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D341" s="3" t="n">
         <v>85</v>
@@ -9138,7 +9134,7 @@
         <v>39904</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D342" s="3" t="n">
         <v>90</v>
@@ -9164,7 +9160,7 @@
         <v>39736</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D343" s="3" t="n">
         <v>90</v>
@@ -9190,7 +9186,7 @@
         <v>39733</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D344" s="3" t="n">
         <v>71</v>
@@ -9210,13 +9206,13 @@
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B345" s="4" t="n">
         <v>40684</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D345" s="3" t="n">
         <v>60</v>
@@ -9236,13 +9232,13 @@
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B346" s="4" t="n">
         <v>40678</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D346" s="3" t="n">
         <v>69</v>
@@ -9262,13 +9258,13 @@
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B347" s="4" t="n">
         <v>40670</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D347" s="3" t="n">
         <v>55</v>
@@ -9288,7 +9284,7 @@
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B348" s="4" t="n">
         <v>40666</v>
@@ -9314,13 +9310,13 @@
     </row>
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B349" s="4" t="n">
         <v>40663</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D349" s="3" t="n">
         <v>90</v>
@@ -9340,7 +9336,7 @@
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B350" s="4" t="n">
         <v>40660</v>
@@ -9358,13 +9354,13 @@
     </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B351" s="4" t="n">
         <v>40656</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D351" s="3" t="n">
         <v>90</v>
@@ -9384,13 +9380,13 @@
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B352" s="4" t="n">
         <v>40653</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D352" s="3" t="n">
         <v>0</v>
@@ -9402,13 +9398,13 @@
     </row>
     <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B353" s="4" t="n">
         <v>40649</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D353" s="3" t="n">
         <v>0</v>
@@ -9420,7 +9416,7 @@
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B354" s="4" t="n">
         <v>40646</v>
@@ -9446,13 +9442,13 @@
     </row>
     <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B355" s="4" t="n">
         <v>40642</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D355" s="3" t="n">
         <v>90</v>
@@ -9472,7 +9468,7 @@
     </row>
     <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B356" s="4" t="n">
         <v>40638</v>
@@ -9498,13 +9494,13 @@
     </row>
     <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B357" s="4" t="n">
         <v>40605</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D357" s="3" t="n">
         <v>0</v>
@@ -9516,13 +9512,13 @@
     </row>
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B358" s="4" t="n">
         <v>40600</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D358" s="3" t="n">
         <v>60</v>
@@ -9542,7 +9538,7 @@
     </row>
     <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B359" s="4" t="n">
         <v>40596</v>
@@ -9560,13 +9556,13 @@
     </row>
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B360" s="4" t="n">
         <v>40593</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D360" s="3" t="n">
         <v>75</v>
@@ -9586,13 +9582,13 @@
     </row>
     <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B361" s="4" t="n">
         <v>40587</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D361" s="3" t="n">
         <v>0</v>
@@ -9604,13 +9600,13 @@
     </row>
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B362" s="4" t="n">
         <v>40580</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D362" s="3" t="n">
         <v>59</v>
@@ -9630,13 +9626,13 @@
     </row>
     <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B363" s="4" t="n">
         <v>40576</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D363" s="3" t="n">
         <v>0</v>
@@ -9648,13 +9644,13 @@
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B364" s="4" t="n">
         <v>40573</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D364" s="3" t="n">
         <v>26</v>
@@ -9674,13 +9670,13 @@
     </row>
     <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B365" s="4" t="n">
         <v>40569</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D365" s="3" t="n">
         <v>0</v>
@@ -9692,13 +9688,13 @@
     </row>
     <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B366" s="4" t="n">
         <v>40566</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D366" s="3" t="n">
         <v>45</v>
@@ -9718,13 +9714,13 @@
     </row>
     <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B367" s="4" t="n">
         <v>40563</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D367" s="3" t="n">
         <v>15</v>
@@ -9744,13 +9740,13 @@
     </row>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B368" s="4" t="n">
         <v>40559</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D368" s="3" t="n">
         <v>53</v>
@@ -9770,13 +9766,13 @@
     </row>
     <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B369" s="4" t="n">
         <v>40556</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D369" s="3" t="n">
         <v>35</v>
@@ -9796,13 +9792,13 @@
     </row>
     <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B370" s="4" t="n">
         <v>40552</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D370" s="3" t="n">
         <v>21</v>
@@ -9822,13 +9818,13 @@
     </row>
     <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B371" s="4" t="n">
         <v>40549</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D371" s="3" t="n">
         <v>34</v>
@@ -9848,13 +9844,13 @@
     </row>
     <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B372" s="4" t="n">
         <v>40546</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D372" s="3" t="n">
         <v>15</v>
@@ -10056,13 +10052,13 @@
     </row>
     <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B380" s="4" t="n">
         <v>41042</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D380" s="3" t="n">
         <v>0</v>
@@ -10074,13 +10070,13 @@
     </row>
     <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B381" s="4" t="n">
         <v>41034</v>
       </c>
       <c r="C381" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D381" s="3" t="n">
         <v>45</v>
@@ -10100,13 +10096,13 @@
     </row>
     <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B382" s="4" t="n">
         <v>41031</v>
       </c>
       <c r="C382" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D382" s="3" t="n">
         <v>0</v>
@@ -10118,13 +10114,13 @@
     </row>
     <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B383" s="4" t="n">
         <v>41028</v>
       </c>
       <c r="C383" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D383" s="3" t="n">
         <v>0</v>
@@ -10136,7 +10132,7 @@
     </row>
     <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B384" s="4" t="n">
         <v>41024</v>
@@ -10162,13 +10158,13 @@
     </row>
     <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B385" s="4" t="n">
         <v>41020</v>
       </c>
       <c r="C385" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D385" s="3" t="n">
         <v>0</v>
@@ -10180,7 +10176,7 @@
     </row>
     <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B386" s="4" t="n">
         <v>41016</v>
@@ -10198,13 +10194,13 @@
     </row>
     <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B387" s="4" t="n">
         <v>41013</v>
       </c>
       <c r="C387" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D387" s="3" t="n">
         <v>0</v>
@@ -10216,13 +10212,13 @@
     </row>
     <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B388" s="4" t="n">
         <v>41010</v>
       </c>
       <c r="C388" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D388" s="3" t="n">
         <v>45</v>
@@ -10242,13 +10238,13 @@
     </row>
     <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B389" s="4" t="n">
         <v>41007</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D389" s="3" t="n">
         <v>19</v>
@@ -10268,7 +10264,7 @@
     </row>
     <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B390" s="4" t="n">
         <v>41003</v>
@@ -10294,13 +10290,13 @@
     </row>
     <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B391" s="4" t="n">
         <v>40999</v>
       </c>
       <c r="C391" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D391" s="3" t="n">
         <v>0</v>
@@ -10312,7 +10308,7 @@
     </row>
     <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B392" s="4" t="n">
         <v>40995</v>
@@ -10338,13 +10334,13 @@
     </row>
     <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B393" s="4" t="n">
         <v>40992</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D393" s="3" t="n">
         <v>90</v>
@@ -10364,13 +10360,13 @@
     </row>
     <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B394" s="4" t="n">
         <v>40989</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D394" s="3" t="n">
         <v>0</v>
@@ -10382,13 +10378,13 @@
     </row>
     <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B395" s="4" t="n">
         <v>40986</v>
       </c>
       <c r="C395" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D395" s="3" t="n">
         <v>66</v>
@@ -10408,7 +10404,7 @@
     </row>
     <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B396" s="4" t="n">
         <v>40982</v>
@@ -10434,13 +10430,13 @@
     </row>
     <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B397" s="4" t="n">
         <v>40978</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D397" s="3" t="n">
         <v>74</v>
@@ -10460,13 +10456,13 @@
     </row>
     <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B398" s="4" t="n">
         <v>40972</v>
       </c>
       <c r="C398" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D398" s="3" t="n">
         <v>90</v>
@@ -10486,13 +10482,13 @@
     </row>
     <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B399" s="4" t="n">
         <v>40965</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D399" s="3" t="n">
         <v>60</v>
@@ -10512,7 +10508,7 @@
     </row>
     <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B400" s="4" t="n">
         <v>40960</v>
@@ -10538,13 +10534,13 @@
     </row>
     <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B401" s="4" t="n">
         <v>40957</v>
       </c>
       <c r="C401" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D401" s="3" t="n">
         <v>90</v>
@@ -10564,13 +10560,13 @@
     </row>
     <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B402" s="4" t="n">
         <v>40951</v>
       </c>
       <c r="C402" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D402" s="3" t="n">
         <v>10</v>
@@ -10590,13 +10586,13 @@
     </row>
     <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B403" s="4" t="n">
         <v>40943</v>
       </c>
       <c r="C403" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D403" s="3" t="n">
         <v>62</v>
@@ -10616,13 +10612,13 @@
     </row>
     <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B404" s="4" t="n">
         <v>40936</v>
       </c>
       <c r="C404" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D404" s="3" t="n">
         <v>66</v>
@@ -10642,13 +10638,13 @@
     </row>
     <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B405" s="4" t="n">
         <v>40933</v>
       </c>
       <c r="C405" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D405" s="3" t="n">
         <v>61</v>
@@ -10668,13 +10664,13 @@
     </row>
     <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B406" s="4" t="n">
         <v>40930</v>
       </c>
       <c r="C406" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D406" s="3" t="n">
         <v>78</v>
@@ -10694,13 +10690,13 @@
     </row>
     <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B407" s="4" t="n">
         <v>40926</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D407" s="3" t="n">
         <v>0</v>
@@ -10712,13 +10708,13 @@
     </row>
     <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B408" s="4" t="n">
         <v>40922</v>
       </c>
       <c r="C408" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D408" s="3" t="n">
         <v>32</v>
@@ -10738,13 +10734,13 @@
     </row>
     <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B409" s="4" t="n">
         <v>40918</v>
       </c>
       <c r="C409" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D409" s="3" t="n">
         <v>46</v>
@@ -10764,13 +10760,13 @@
     </row>
     <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B410" s="4" t="n">
         <v>40911</v>
       </c>
       <c r="C410" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D410" s="3" t="n">
         <v>46</v>
@@ -10790,13 +10786,13 @@
     </row>
     <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B411" s="4" t="n">
         <v>40894</v>
       </c>
       <c r="C411" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D411" s="3" t="n">
         <v>0</v>
@@ -10808,13 +10804,13 @@
     </row>
     <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B412" s="4" t="n">
         <v>40890</v>
       </c>
       <c r="C412" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D412" s="3" t="n">
         <v>71</v>
@@ -10834,13 +10830,13 @@
     </row>
     <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B413" s="4" t="n">
         <v>40887</v>
       </c>
       <c r="C413" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D413" s="3" t="n">
         <v>33</v>
@@ -10860,7 +10856,7 @@
     </row>
     <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B414" s="4" t="n">
         <v>40884</v>
@@ -10886,13 +10882,13 @@
     </row>
     <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B415" s="4" t="n">
         <v>40880</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D415" s="3" t="n">
         <v>11</v>
@@ -10912,13 +10908,13 @@
     </row>
     <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B416" s="4" t="n">
         <v>40845</v>
       </c>
       <c r="C416" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D416" s="3" t="n">
         <v>27</v>
@@ -10938,13 +10934,13 @@
     </row>
     <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B417" s="4" t="n">
         <v>40842</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D417" s="3" t="n">
         <v>90</v>
@@ -10964,13 +10960,13 @@
     </row>
     <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B418" s="4" t="n">
         <v>40838</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D418" s="3" t="n">
         <v>61</v>
@@ -10990,7 +10986,7 @@
     </row>
     <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B419" s="4" t="n">
         <v>40834</v>
@@ -11016,13 +11012,13 @@
     </row>
     <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B420" s="4" t="n">
         <v>40831</v>
       </c>
       <c r="C420" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D420" s="3" t="n">
         <v>59</v>
@@ -11042,13 +11038,13 @@
     </row>
     <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B421" s="4" t="n">
         <v>40818</v>
       </c>
       <c r="C421" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D421" s="3" t="n">
         <v>83</v>
@@ -11068,7 +11064,7 @@
     </row>
     <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B422" s="4" t="n">
         <v>40813</v>
@@ -11094,13 +11090,13 @@
     </row>
     <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B423" s="4" t="n">
         <v>40810</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D423" s="3" t="n">
         <v>58</v>
@@ -11120,13 +11116,13 @@
     </row>
     <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B424" s="4" t="n">
         <v>40807</v>
       </c>
       <c r="C424" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D424" s="3" t="n">
         <v>15</v>
@@ -11146,13 +11142,13 @@
     </row>
     <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B425" s="4" t="n">
         <v>40804</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D425" s="3" t="n">
         <v>58</v>
@@ -11172,13 +11168,13 @@
     </row>
     <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B426" s="4" t="n">
         <v>40796</v>
       </c>
       <c r="C426" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D426" s="3" t="n">
         <v>18</v>
@@ -11198,13 +11194,13 @@
     </row>
     <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B427" s="4" t="n">
         <v>40783</v>
       </c>
       <c r="C427" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D427" s="3" t="n">
         <v>13</v>
@@ -11224,13 +11220,13 @@
     </row>
     <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B428" s="4" t="n">
         <v>40772</v>
       </c>
       <c r="C428" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D428" s="3" t="n">
         <v>13</v>
@@ -11250,13 +11246,13 @@
     </row>
     <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B429" s="4" t="n">
         <v>40769</v>
       </c>
       <c r="C429" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D429" s="3" t="n">
         <v>0</v>
@@ -11268,13 +11264,13 @@
     </row>
     <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B430" s="4" t="n">
         <v>40744</v>
       </c>
       <c r="C430" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D430" s="3" t="n">
         <v>90</v>
@@ -11294,13 +11290,13 @@
     </row>
     <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B431" s="4" t="n">
         <v>40740</v>
       </c>
       <c r="C431" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D431" s="3" t="n">
         <v>90</v>
@@ -11320,13 +11316,13 @@
     </row>
     <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B432" s="4" t="n">
         <v>41420</v>
       </c>
       <c r="C432" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D432" s="3" t="n">
         <v>66</v>
@@ -11346,13 +11342,13 @@
     </row>
     <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B433" s="4" t="n">
         <v>41411</v>
       </c>
       <c r="C433" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D433" s="3" t="n">
         <v>0</v>
@@ -11364,13 +11360,13 @@
     </row>
     <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B434" s="4" t="n">
         <v>41405</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D434" s="3" t="n">
         <v>56</v>
@@ -11390,13 +11386,13 @@
     </row>
     <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B435" s="4" t="n">
         <v>41402</v>
       </c>
       <c r="C435" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D435" s="3" t="n">
         <v>0</v>
@@ -11408,13 +11404,13 @@
     </row>
     <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B436" s="4" t="n">
         <v>41398</v>
       </c>
       <c r="C436" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D436" s="3" t="n">
         <v>66</v>
@@ -11434,7 +11430,7 @@
     </row>
     <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B437" s="4" t="n">
         <v>41394</v>
@@ -11460,13 +11456,13 @@
     </row>
     <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B438" s="4" t="n">
         <v>41391</v>
       </c>
       <c r="C438" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D438" s="3" t="n">
         <v>66</v>
@@ -11486,7 +11482,7 @@
     </row>
     <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B439" s="4" t="n">
         <v>41388</v>
@@ -11512,13 +11508,13 @@
     </row>
     <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B440" s="4" t="n">
         <v>41384</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D440" s="3" t="n">
         <v>0</v>
@@ -11530,13 +11526,13 @@
     </row>
     <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B441" s="4" t="n">
         <v>41370</v>
       </c>
       <c r="C441" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D441" s="3" t="n">
         <v>56</v>
@@ -11556,7 +11552,7 @@
     </row>
     <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B442" s="4" t="n">
         <v>41367</v>
@@ -11574,13 +11570,13 @@
     </row>
     <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B443" s="4" t="n">
         <v>41363</v>
       </c>
       <c r="C443" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D443" s="3" t="n">
         <v>59</v>
@@ -11600,13 +11596,13 @@
     </row>
     <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B444" s="4" t="n">
         <v>41349</v>
       </c>
       <c r="C444" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D444" s="3" t="n">
         <v>61</v>
@@ -11626,13 +11622,13 @@
     </row>
     <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B445" s="4" t="n">
         <v>41343</v>
       </c>
       <c r="C445" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D445" s="3" t="n">
         <v>25</v>
@@ -11652,7 +11648,7 @@
     </row>
     <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B446" s="4" t="n">
         <v>41338</v>
@@ -11678,13 +11674,13 @@
     </row>
     <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B447" s="4" t="n">
         <v>41335</v>
       </c>
       <c r="C447" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D447" s="3" t="n">
         <v>57</v>
@@ -11704,13 +11700,13 @@
     </row>
     <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B448" s="4" t="n">
         <v>41331</v>
       </c>
       <c r="C448" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D448" s="3" t="n">
         <v>0</v>
@@ -11722,13 +11718,13 @@
     </row>
     <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B449" s="4" t="n">
         <v>41328</v>
       </c>
       <c r="C449" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D449" s="3" t="n">
         <v>90</v>
@@ -11748,13 +11744,13 @@
     </row>
     <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B450" s="4" t="n">
         <v>41322</v>
       </c>
       <c r="C450" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D450" s="3" t="n">
         <v>79</v>
@@ -11774,7 +11770,7 @@
     </row>
     <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B451" s="4" t="n">
         <v>41318</v>
@@ -11792,13 +11788,13 @@
     </row>
     <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B452" s="4" t="n">
         <v>41314</v>
       </c>
       <c r="C452" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D452" s="3" t="n">
         <v>67</v>
@@ -11818,13 +11814,13 @@
     </row>
     <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B453" s="4" t="n">
         <v>41304</v>
       </c>
       <c r="C453" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D453" s="3" t="n">
         <v>0</v>
@@ -11836,13 +11832,13 @@
     </row>
     <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B454" s="4" t="n">
         <v>41286</v>
       </c>
       <c r="C454" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D454" s="3" t="n">
         <v>33</v>
@@ -11862,13 +11858,13 @@
     </row>
     <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B455" s="4" t="n">
         <v>41283</v>
       </c>
       <c r="C455" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D455" s="3" t="n">
         <v>0</v>
@@ -11880,13 +11876,13 @@
     </row>
     <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B456" s="4" t="n">
         <v>41280</v>
       </c>
       <c r="C456" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D456" s="3" t="n">
         <v>0</v>
@@ -11898,13 +11894,13 @@
     </row>
     <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B457" s="4" t="n">
         <v>41265</v>
       </c>
       <c r="C457" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D457" s="3" t="n">
         <v>27</v>
@@ -11924,13 +11920,13 @@
     </row>
     <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B458" s="4" t="n">
         <v>41259</v>
       </c>
       <c r="C458" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D458" s="3" t="n">
         <v>0</v>
@@ -11942,13 +11938,13 @@
     </row>
     <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B459" s="4" t="n">
         <v>41255</v>
       </c>
       <c r="C459" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D459" s="3" t="n">
         <v>25</v>
@@ -11968,13 +11964,13 @@
     </row>
     <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B460" s="4" t="n">
         <v>41251</v>
       </c>
       <c r="C460" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D460" s="3" t="n">
         <v>0</v>
@@ -11986,7 +11982,7 @@
     </row>
     <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B461" s="4" t="n">
         <v>41247</v>
@@ -12012,13 +12008,13 @@
     </row>
     <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B462" s="4" t="n">
         <v>41244</v>
       </c>
       <c r="C462" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D462" s="3" t="n">
         <v>0</v>
@@ -12030,13 +12026,13 @@
     </row>
     <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B463" s="4" t="n">
         <v>41237</v>
       </c>
       <c r="C463" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D463" s="3" t="n">
         <v>45</v>
@@ -12056,7 +12052,7 @@
     </row>
     <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B464" s="4" t="n">
         <v>41234</v>
@@ -12074,13 +12070,13 @@
     </row>
     <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B465" s="4" t="n">
         <v>41230</v>
       </c>
       <c r="C465" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D465" s="3" t="n">
         <v>0</v>
@@ -12118,13 +12114,13 @@
     </row>
     <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B467" s="4" t="n">
         <v>41224</v>
       </c>
       <c r="C467" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D467" s="3" t="n">
         <v>21</v>
@@ -12144,7 +12140,7 @@
     </row>
     <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B468" s="4" t="n">
         <v>41219</v>
@@ -12170,13 +12166,13 @@
     </row>
     <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B469" s="4" t="n">
         <v>41216</v>
       </c>
       <c r="C469" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D469" s="3" t="n">
         <v>0</v>
@@ -12188,13 +12184,13 @@
     </row>
     <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B470" s="4" t="n">
         <v>41213</v>
       </c>
       <c r="C470" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D470" s="3" t="n">
         <v>90</v>
@@ -12214,13 +12210,13 @@
     </row>
     <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B471" s="4" t="n">
         <v>41210</v>
       </c>
       <c r="C471" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D471" s="3" t="n">
         <v>0</v>
@@ -12232,7 +12228,7 @@
     </row>
     <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B472" s="4" t="n">
         <v>41206</v>
@@ -12250,13 +12246,13 @@
     </row>
     <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B473" s="4" t="n">
         <v>41202</v>
       </c>
       <c r="C473" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D473" s="3" t="n">
         <v>45</v>
@@ -12328,13 +12324,13 @@
     </row>
     <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B476" s="4" t="n">
         <v>41189</v>
       </c>
       <c r="C476" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D476" s="3" t="n">
         <v>11</v>
@@ -12354,7 +12350,7 @@
     </row>
     <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B477" s="4" t="n">
         <v>41185</v>
@@ -12380,13 +12376,13 @@
     </row>
     <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B478" s="4" t="n">
         <v>41182</v>
       </c>
       <c r="C478" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D478" s="3" t="n">
         <v>45</v>
@@ -12406,13 +12402,13 @@
     </row>
     <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B479" s="4" t="n">
         <v>41176</v>
       </c>
       <c r="C479" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D479" s="3" t="n">
         <v>0</v>
@@ -12424,7 +12420,7 @@
     </row>
     <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B480" s="4" t="n">
         <v>41170</v>
@@ -12442,13 +12438,13 @@
     </row>
     <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B481" s="4" t="n">
         <v>41167</v>
       </c>
       <c r="C481" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D481" s="3" t="n">
         <v>0</v>
@@ -12460,13 +12456,13 @@
     </row>
     <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B482" s="4" t="n">
         <v>41154</v>
       </c>
       <c r="C482" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D482" s="3" t="n">
         <v>0</v>
@@ -12478,13 +12474,13 @@
     </row>
     <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B483" s="4" t="n">
         <v>41140</v>
       </c>
       <c r="C483" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D483" s="3" t="n">
         <v>0</v>
@@ -12496,13 +12492,13 @@
     </row>
     <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B484" s="4" t="n">
         <v>41132</v>
       </c>
       <c r="C484" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D484" s="3" t="n">
         <v>45</v>
@@ -12522,13 +12518,13 @@
     </row>
     <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B485" s="4" t="n">
         <v>41129</v>
       </c>
       <c r="C485" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D485" s="3" t="n">
         <v>29</v>
@@ -12548,13 +12544,13 @@
     </row>
     <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B486" s="4" t="n">
         <v>41126</v>
       </c>
       <c r="C486" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D486" s="3" t="n">
         <v>45</v>
@@ -12574,13 +12570,13 @@
     </row>
     <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B487" s="4" t="n">
         <v>41123</v>
       </c>
       <c r="C487" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D487" s="3" t="n">
         <v>45</v>
@@ -13616,13 +13612,13 @@
     </row>
     <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B528" s="4" t="n">
         <v>41518</v>
       </c>
       <c r="C528" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D528" s="3" t="n">
         <v>0</v>
@@ -13634,13 +13630,13 @@
     </row>
     <row r="529" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B529" s="4" t="n">
         <v>41512</v>
       </c>
       <c r="C529" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D529" s="3" t="n">
         <v>0</v>
@@ -13652,13 +13648,13 @@
     </row>
     <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B530" s="4" t="n">
         <v>41504</v>
       </c>
       <c r="C530" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D530" s="3" t="n">
         <v>0</v>
@@ -13670,13 +13666,13 @@
     </row>
     <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B531" s="4" t="n">
         <v>41493</v>
       </c>
       <c r="C531" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D531" s="3" t="n">
         <v>0</v>
@@ -13688,13 +13684,13 @@
     </row>
     <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B532" s="4" t="n">
         <v>41489</v>
       </c>
       <c r="C532" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D532" s="3" t="n">
         <v>20</v>
@@ -13714,13 +13710,13 @@
     </row>
     <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B533" s="4" t="n">
         <v>41487</v>
       </c>
       <c r="C533" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D533" s="3" t="n">
         <v>61</v>
@@ -13792,13 +13788,13 @@
     </row>
     <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B536" s="4" t="n">
         <v>41973</v>
       </c>
       <c r="C536" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D536" s="3" t="n">
         <v>90</v>
@@ -13818,13 +13814,13 @@
     </row>
     <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B537" s="4" t="n">
         <v>41969</v>
       </c>
       <c r="C537" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D537" s="3" t="n">
         <v>79</v>
@@ -13844,13 +13840,13 @@
     </row>
     <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B538" s="4" t="n">
         <v>41966</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D538" s="3" t="n">
         <v>0</v>
@@ -13862,13 +13858,13 @@
     </row>
     <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B539" s="4" t="n">
         <v>41962</v>
       </c>
       <c r="C539" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D539" s="3" t="n">
         <v>67</v>
@@ -13888,13 +13884,13 @@
     </row>
     <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B540" s="4" t="n">
         <v>41959</v>
       </c>
       <c r="C540" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D540" s="3" t="n">
         <v>81</v>
@@ -13914,13 +13910,13 @@
     </row>
     <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B541" s="4" t="n">
         <v>41955</v>
       </c>
       <c r="C541" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D541" s="3" t="n">
         <v>90</v>
@@ -13940,13 +13936,13 @@
     </row>
     <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B542" s="4" t="n">
         <v>41952</v>
       </c>
       <c r="C542" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D542" s="3" t="n">
         <v>19</v>
@@ -13966,13 +13962,13 @@
     </row>
     <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B543" s="4" t="n">
         <v>41948</v>
       </c>
       <c r="C543" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D543" s="3" t="n">
         <v>82</v>
@@ -13992,13 +13988,13 @@
     </row>
     <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B544" s="4" t="n">
         <v>41948</v>
       </c>
       <c r="C544" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D544" s="3" t="n">
         <v>90</v>
@@ -14018,13 +14014,13 @@
     </row>
     <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B545" s="4" t="n">
         <v>41942</v>
       </c>
       <c r="C545" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D545" s="3" t="n">
         <v>78</v>
@@ -14044,13 +14040,13 @@
     </row>
     <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B546" s="4" t="n">
         <v>41942</v>
       </c>
       <c r="C546" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D546" s="3" t="n">
         <v>78</v>
@@ -14070,13 +14066,13 @@
     </row>
     <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B547" s="4" t="n">
         <v>41934</v>
       </c>
       <c r="C547" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D547" s="3" t="n">
         <v>90</v>
@@ -14096,13 +14092,13 @@
     </row>
     <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B548" s="4" t="n">
         <v>41930</v>
       </c>
       <c r="C548" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D548" s="3" t="n">
         <v>90</v>
@@ -14174,13 +14170,13 @@
     </row>
     <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B551" s="4" t="n">
         <v>41916</v>
       </c>
       <c r="C551" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D551" s="3" t="n">
         <v>90</v>
@@ -14200,13 +14196,13 @@
     </row>
     <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B552" s="4" t="n">
         <v>41909</v>
       </c>
       <c r="C552" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D552" s="3" t="n">
         <v>90</v>
@@ -14226,13 +14222,13 @@
     </row>
     <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B553" s="4" t="n">
         <v>41906</v>
       </c>
       <c r="C553" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D553" s="3" t="n">
         <v>90</v>
@@ -14252,13 +14248,13 @@
     </row>
     <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B554" s="4" t="n">
         <v>41903</v>
       </c>
       <c r="C554" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D554" s="3" t="n">
         <v>90</v>
@@ -14278,13 +14274,13 @@
     </row>
     <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B555" s="4" t="n">
         <v>41896</v>
       </c>
       <c r="C555" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D555" s="3" t="n">
         <v>90</v>
@@ -14304,13 +14300,13 @@
     </row>
     <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B556" s="4" t="n">
         <v>41892</v>
       </c>
       <c r="C556" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D556" s="3" t="n">
         <v>67</v>
@@ -14330,13 +14326,13 @@
     </row>
     <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B557" s="4" t="n">
         <v>41889</v>
       </c>
       <c r="C557" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D557" s="3" t="n">
         <v>82</v>
@@ -14356,13 +14352,13 @@
     </row>
     <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B558" s="4" t="n">
         <v>41886</v>
       </c>
       <c r="C558" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D558" s="3" t="n">
         <v>90</v>
@@ -14382,13 +14378,13 @@
     </row>
     <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B559" s="4" t="n">
         <v>41886</v>
       </c>
       <c r="C559" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D559" s="3" t="n">
         <v>90</v>
@@ -14408,13 +14404,13 @@
     </row>
     <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B560" s="4" t="n">
         <v>41882</v>
       </c>
       <c r="C560" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D560" s="3" t="n">
         <v>90</v>
@@ -14434,13 +14430,13 @@
     </row>
     <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B561" s="4" t="n">
         <v>41875</v>
       </c>
       <c r="C561" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D561" s="3" t="n">
         <v>90</v>
@@ -14460,13 +14456,13 @@
     </row>
     <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B562" s="4" t="n">
         <v>41871</v>
       </c>
       <c r="C562" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D562" s="3" t="n">
         <v>90</v>
@@ -14486,13 +14482,13 @@
     </row>
     <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B563" s="4" t="n">
         <v>41868</v>
       </c>
       <c r="C563" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D563" s="3" t="n">
         <v>90</v>
@@ -14512,13 +14508,13 @@
     </row>
     <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B564" s="4" t="n">
         <v>41861</v>
       </c>
       <c r="C564" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D564" s="3" t="n">
         <v>90</v>
@@ -14538,13 +14534,13 @@
     </row>
     <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B565" s="4" t="n">
         <v>41847</v>
       </c>
       <c r="C565" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D565" s="3" t="n">
         <v>90</v>
@@ -14570,7 +14566,7 @@
         <v>42325</v>
       </c>
       <c r="C566" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D566" s="3" t="n">
         <v>0</v>
@@ -14588,7 +14584,7 @@
         <v>42321</v>
       </c>
       <c r="C567" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D567" s="3" t="n">
         <v>0</v>
@@ -14600,13 +14596,13 @@
     </row>
     <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B568" s="4" t="n">
         <v>42302</v>
       </c>
       <c r="C568" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D568" s="3" t="n">
         <v>90</v>
@@ -14632,7 +14628,7 @@
         <v>42290</v>
       </c>
       <c r="C569" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D569" s="3" t="n">
         <v>16</v>
@@ -14658,7 +14654,7 @@
         <v>42285</v>
       </c>
       <c r="C570" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D570" s="3" t="n">
         <v>0</v>
@@ -14670,13 +14666,13 @@
     </row>
     <row r="571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B571" s="4" t="n">
         <v>42280</v>
       </c>
       <c r="C571" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D571" s="3" t="n">
         <v>90</v>
@@ -14696,13 +14692,13 @@
     </row>
     <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B572" s="4" t="n">
         <v>42272</v>
       </c>
       <c r="C572" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D572" s="3" t="n">
         <v>90</v>
@@ -14766,13 +14762,13 @@
     </row>
     <row r="575" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B575" s="4" t="n">
         <v>42245</v>
       </c>
       <c r="C575" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D575" s="3" t="n">
         <v>90</v>
@@ -14792,13 +14788,13 @@
     </row>
     <row r="576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B576" s="4" t="n">
         <v>42238</v>
       </c>
       <c r="C576" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D576" s="3" t="n">
         <v>84</v>
@@ -14818,13 +14814,13 @@
     </row>
     <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B577" s="4" t="n">
         <v>42232</v>
       </c>
       <c r="C577" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D577" s="3" t="n">
         <v>69</v>
@@ -14844,13 +14840,13 @@
     </row>
     <row r="578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B578" s="4" t="n">
         <v>42224</v>
       </c>
       <c r="C578" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D578" s="3" t="n">
         <v>90</v>
@@ -14870,13 +14866,13 @@
     </row>
     <row r="579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B579" s="4" t="n">
         <v>42217</v>
       </c>
       <c r="C579" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D579" s="3" t="n">
         <v>90</v>
@@ -14896,13 +14892,13 @@
     </row>
     <row r="580" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B580" s="4" t="n">
         <v>42214</v>
       </c>
       <c r="C580" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D580" s="3" t="n">
         <v>45</v>
@@ -14922,13 +14918,13 @@
     </row>
     <row r="581" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B581" s="4" t="n">
         <v>42211</v>
       </c>
       <c r="C581" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D581" s="3" t="n">
         <v>90</v>
@@ -14948,13 +14944,13 @@
     </row>
     <row r="582" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B582" s="4" t="n">
         <v>42207</v>
       </c>
       <c r="C582" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D582" s="3" t="n">
         <v>90</v>
@@ -14974,13 +14970,13 @@
     </row>
     <row r="583" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B583" s="4" t="n">
         <v>42203</v>
       </c>
       <c r="C583" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D583" s="3" t="n">
         <v>90</v>
@@ -15000,13 +14996,13 @@
     </row>
     <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B584" s="4" t="n">
         <v>42189</v>
       </c>
       <c r="C584" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D584" s="3" t="n">
         <v>90</v>
@@ -15026,13 +15022,13 @@
     </row>
     <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B585" s="4" t="n">
         <v>42185</v>
       </c>
       <c r="C585" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D585" s="3" t="n">
         <v>85</v>
@@ -15052,13 +15048,13 @@
     </row>
     <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B586" s="4" t="n">
         <v>42179</v>
       </c>
       <c r="C586" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D586" s="3" t="n">
         <v>90</v>
@@ -15078,13 +15074,13 @@
     </row>
     <row r="587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B587" s="4" t="n">
         <v>42175</v>
       </c>
       <c r="C587" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D587" s="3" t="n">
         <v>90</v>
@@ -15104,13 +15100,13 @@
     </row>
     <row r="588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B588" s="4" t="n">
         <v>42169</v>
       </c>
       <c r="C588" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D588" s="3" t="n">
         <v>90</v>
@@ -15130,13 +15126,13 @@
     </row>
     <row r="589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B589" s="4" t="n">
         <v>42161</v>
       </c>
       <c r="C589" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D589" s="3" t="n">
         <v>88</v>
@@ -15156,13 +15152,13 @@
     </row>
     <row r="590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B590" s="4" t="n">
         <v>42154</v>
       </c>
       <c r="C590" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D590" s="3" t="n">
         <v>90</v>
@@ -15182,13 +15178,13 @@
     </row>
     <row r="591" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B591" s="4" t="n">
         <v>42148</v>
       </c>
       <c r="C591" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D591" s="3" t="n">
         <v>90</v>
@@ -15208,13 +15204,13 @@
     </row>
     <row r="592" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B592" s="4" t="n">
         <v>42141</v>
       </c>
       <c r="C592" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D592" s="3" t="n">
         <v>90</v>
@@ -15234,13 +15230,13 @@
     </row>
     <row r="593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B593" s="4" t="n">
         <v>42137</v>
       </c>
       <c r="C593" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D593" s="3" t="n">
         <v>90</v>
@@ -15260,13 +15256,13 @@
     </row>
     <row r="594" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B594" s="4" t="n">
         <v>42132</v>
       </c>
       <c r="C594" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D594" s="3" t="n">
         <v>90</v>
@@ -15286,13 +15282,13 @@
     </row>
     <row r="595" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B595" s="4" t="n">
         <v>42120</v>
       </c>
       <c r="C595" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D595" s="3" t="n">
         <v>90</v>
@@ -15312,13 +15308,13 @@
     </row>
     <row r="596" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B596" s="4" t="n">
         <v>42112</v>
       </c>
       <c r="C596" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D596" s="3" t="n">
         <v>90</v>
@@ -15338,13 +15334,13 @@
     </row>
     <row r="597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B597" s="4" t="n">
         <v>42106</v>
       </c>
       <c r="C597" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D597" s="3" t="n">
         <v>90</v>
@@ -15364,13 +15360,13 @@
     </row>
     <row r="598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B598" s="4" t="n">
         <v>42097</v>
       </c>
       <c r="C598" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D598" s="3" t="n">
         <v>90</v>
@@ -15390,13 +15386,13 @@
     </row>
     <row r="599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B599" s="4" t="n">
         <v>42091</v>
       </c>
       <c r="C599" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D599" s="3" t="n">
         <v>90</v>
@@ -15416,13 +15412,13 @@
     </row>
     <row r="600" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B600" s="4" t="n">
         <v>42084</v>
       </c>
       <c r="C600" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D600" s="3" t="n">
         <v>90</v>
@@ -15442,13 +15438,13 @@
     </row>
     <row r="601" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B601" s="4" t="n">
         <v>42076</v>
       </c>
       <c r="C601" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D601" s="3" t="n">
         <v>81</v>
@@ -15468,13 +15464,13 @@
     </row>
     <row r="602" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B602" s="4" t="n">
         <v>42071</v>
       </c>
       <c r="C602" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D602" s="3" t="n">
         <v>90</v>
@@ -15494,13 +15490,13 @@
     </row>
     <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B603" s="4" t="n">
         <v>42546</v>
       </c>
       <c r="C603" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D603" s="3" t="n">
         <v>90</v>
@@ -15546,13 +15542,13 @@
     </row>
     <row r="605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B605" s="4" t="n">
         <v>42515</v>
       </c>
       <c r="C605" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D605" s="3" t="n">
         <v>90</v>
@@ -15572,13 +15568,13 @@
     </row>
     <row r="606" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B606" s="4" t="n">
         <v>42511</v>
       </c>
       <c r="C606" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D606" s="3" t="n">
         <v>90</v>
@@ -15598,13 +15594,13 @@
     </row>
     <row r="607" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B607" s="4" t="n">
         <v>42505</v>
       </c>
       <c r="C607" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D607" s="3" t="n">
         <v>90</v>
@@ -15624,13 +15620,13 @@
     </row>
     <row r="608" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B608" s="4" t="n">
         <v>42496</v>
       </c>
       <c r="C608" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D608" s="3" t="n">
         <v>90</v>
@@ -15650,13 +15646,13 @@
     </row>
     <row r="609" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B609" s="4" t="n">
         <v>42477</v>
       </c>
       <c r="C609" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D609" s="3" t="n">
         <v>90</v>
@@ -15676,13 +15672,13 @@
     </row>
     <row r="610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B610" s="4" t="n">
         <v>42468</v>
       </c>
       <c r="C610" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D610" s="3" t="n">
         <v>90</v>
@@ -15702,13 +15698,13 @@
     </row>
     <row r="611" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B611" s="4" t="n">
         <v>42463</v>
       </c>
       <c r="C611" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D611" s="3" t="n">
         <v>79</v>
